--- a/data/excel/api_cases.xlsx
+++ b/data/excel/api_cases.xlsx
@@ -1114,14 +1114,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="17" customHeight="1" outlineLevelRow="4"/>
@@ -1148,7 +1148,9 @@
     <col hidden="1" width="32.4833333333333" customWidth="1" style="8" min="20" max="21"/>
     <col width="28.4833333333333" customWidth="1" style="8" min="22" max="22"/>
     <col width="58.4166666666667" customWidth="1" style="8" min="23" max="23"/>
-    <col width="9" customWidth="1" style="8" min="24" max="16384"/>
+    <col width="9" customWidth="1" style="8" min="24" max="24"/>
+    <col width="17.05" customWidth="1" style="8" min="25" max="25"/>
+    <col width="9" customWidth="1" style="8" min="26" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="8">
@@ -1272,6 +1274,11 @@
           <t>是否执行</t>
         </is>
       </c>
+      <c r="Y1" s="7" t="inlineStr">
+        <is>
+          <t>验证后续用例是否关联token</t>
+        </is>
+      </c>
     </row>
     <row r="2" customFormat="1" s="8">
       <c r="A2" s="10" t="inlineStr">
@@ -1392,6 +1399,11 @@
       <c r="X2" s="7" t="inlineStr">
         <is>
           <t>is_true</t>
+        </is>
+      </c>
+      <c r="Y2" s="7" t="inlineStr">
+        <is>
+          <t>is_token</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1490,10 @@
         </is>
       </c>
       <c r="X3" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1603,6 +1618,9 @@
         </is>
       </c>
       <c r="X4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1741,10 +1759,13 @@
       <c r="X5" s="8" t="b">
         <v>1</v>
       </c>
+      <c r="Y5" s="8" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="X1:X2 X3 X4:X1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="X1:X2 X3 X4:X1048576 Y1:Y1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1764,13 +1785,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.883333333333329" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.883333333333329" defaultRowHeight="14.25"/>
   <cols>
     <col width="4.31666666666667" customWidth="1" min="1" max="1"/>
     <col width="74.0833333333333" customWidth="1" min="2" max="2"/>
@@ -1856,6 +1877,16 @@
         </is>
       </c>
       <c r="C8" s="7" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>验证后续用例是否关联token，单独用来验证用例是否关联token</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
